--- a/mdgtlab_productosseo.xlsx
+++ b/mdgtlab_productosseo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismartinez/Library/Mobile Documents/com~apple~CloudDocs/mdgt_files/site/mdgtlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72127D67-4CFF-6D4C-B200-5DED2617C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F28303-1257-CE4B-A300-85EEF735CE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2072,8 +2072,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="I36" zoomScale="112" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
